--- a/Projeto 5/indicator ti cpi 2009.xlsx
+++ b/Projeto 5/indicator ti cpi 2009.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
   <si>
     <t>No footnotes</t>
   </si>
@@ -632,9 +632,6 @@
   </si>
   <si>
     <t>A2009</t>
-  </si>
-  <si>
-    <t>Pais</t>
   </si>
   <si>
     <t>NaN</t>
@@ -836,9 +833,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -849,9 +843,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +900,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,21 +1222,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="5" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="30" customWidth="1"/>
+    <col min="3" max="5" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29" t="s">
         <v>201</v>
       </c>
       <c r="C1" s="4"/>
@@ -1250,7 +1246,7 @@
       <c r="A2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="29">
         <v>1.4</v>
       </c>
       <c r="C2" s="4"/>
@@ -1261,7 +1257,7 @@
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="29">
         <v>3.3</v>
       </c>
       <c r="C3" s="4"/>
@@ -1272,7 +1268,7 @@
       <c r="A4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="29">
         <v>2.9</v>
       </c>
       <c r="C4" s="4"/>
@@ -1283,7 +1279,7 @@
       <c r="A5" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="29">
         <v>1.9</v>
       </c>
       <c r="C5" s="4"/>
@@ -1294,7 +1290,7 @@
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="29">
         <v>2.9</v>
       </c>
       <c r="C6" s="4"/>
@@ -1305,7 +1301,7 @@
       <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="29">
         <v>2.6</v>
       </c>
       <c r="C7" s="4"/>
@@ -1316,7 +1312,7 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="29">
         <v>8.6999999999999993</v>
       </c>
       <c r="C8" s="4"/>
@@ -1327,7 +1323,7 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="29">
         <v>7.9</v>
       </c>
       <c r="C9" s="4"/>
@@ -1338,7 +1334,7 @@
       <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="29">
         <v>2.4</v>
       </c>
       <c r="C10" s="4"/>
@@ -1349,7 +1345,7 @@
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="29">
         <v>4.9000000000000004</v>
       </c>
       <c r="C11" s="4"/>
@@ -1360,7 +1356,7 @@
       <c r="A12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="29">
         <v>2.4</v>
       </c>
       <c r="C12" s="4"/>
@@ -1371,7 +1367,7 @@
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="29">
         <v>7.8</v>
       </c>
       <c r="C13" s="4"/>
@@ -1382,7 +1378,7 @@
       <c r="A14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="29">
         <v>2.5</v>
       </c>
       <c r="C14" s="4"/>
@@ -1393,7 +1389,7 @@
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="29">
         <v>7.1</v>
       </c>
       <c r="C15" s="4"/>
@@ -1404,7 +1400,7 @@
       <c r="A16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="29">
         <v>2.8</v>
       </c>
       <c r="C16" s="4"/>
@@ -1415,7 +1411,7 @@
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="29">
         <v>5.7</v>
       </c>
       <c r="C17" s="4"/>
@@ -1426,7 +1422,7 @@
       <c r="A18" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="29">
         <v>2.8</v>
       </c>
       <c r="C18" s="4"/>
@@ -1437,7 +1433,7 @@
       <c r="A19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="29">
         <v>3.2</v>
       </c>
       <c r="C19" s="4"/>
@@ -1448,7 +1444,7 @@
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="29">
         <v>5.8</v>
       </c>
       <c r="C20" s="4"/>
@@ -1459,7 +1455,7 @@
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="29">
         <v>3.7</v>
       </c>
       <c r="C21" s="4"/>
@@ -1470,7 +1466,7 @@
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="29">
         <v>5.5</v>
       </c>
       <c r="C22" s="4"/>
@@ -1481,8 +1477,8 @@
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>203</v>
+      <c r="B23" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1492,7 +1488,7 @@
       <c r="A24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="29">
         <v>3.6</v>
       </c>
       <c r="C24" s="4"/>
@@ -1503,7 +1499,7 @@
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="29">
         <v>3.1</v>
       </c>
       <c r="C25" s="4"/>
@@ -1514,7 +1510,7 @@
       <c r="A26" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="29">
         <v>1.8</v>
       </c>
       <c r="C26" s="4"/>
@@ -1525,7 +1521,7 @@
       <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="29">
         <v>2.1</v>
       </c>
       <c r="C27" s="4"/>
@@ -1536,7 +1532,7 @@
       <c r="A28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C28" s="4"/>
@@ -1547,7 +1543,7 @@
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="29">
         <v>8.9</v>
       </c>
       <c r="C29" s="4"/>
@@ -1558,7 +1554,7 @@
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="29">
         <v>5.0999999999999996</v>
       </c>
       <c r="C30" s="4"/>
@@ -1569,7 +1565,7 @@
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="29">
         <v>2.1</v>
       </c>
       <c r="C31" s="4"/>
@@ -1580,7 +1576,7 @@
       <c r="A32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="29">
         <v>1.7</v>
       </c>
       <c r="C32" s="4"/>
@@ -1591,7 +1587,7 @@
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="29">
         <v>7.2</v>
       </c>
       <c r="C33" s="4"/>
@@ -1602,7 +1598,7 @@
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="29">
         <v>3.5</v>
       </c>
       <c r="C34" s="4"/>
@@ -1613,7 +1609,7 @@
       <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="29">
         <v>3.5</v>
       </c>
       <c r="C35" s="4"/>
@@ -1624,7 +1620,7 @@
       <c r="A36" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="29">
         <v>2.1</v>
       </c>
       <c r="C36" s="4"/>
@@ -1635,7 +1631,7 @@
       <c r="A37" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="29">
         <v>2</v>
       </c>
       <c r="C37" s="4"/>
@@ -1646,7 +1642,7 @@
       <c r="A38" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="29">
         <v>2.1</v>
       </c>
       <c r="C38" s="4"/>
@@ -1657,7 +1653,7 @@
       <c r="A39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="29">
         <v>5.3</v>
       </c>
       <c r="C39" s="4"/>
@@ -1668,7 +1664,7 @@
       <c r="A40" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C40" s="4"/>
@@ -1679,7 +1675,7 @@
       <c r="A41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="C41" s="4"/>
@@ -1690,7 +1686,7 @@
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="29">
         <v>3.7</v>
       </c>
       <c r="C42" s="4"/>
@@ -1701,7 +1697,7 @@
       <c r="A43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="29">
         <v>6.3</v>
       </c>
       <c r="C43" s="4"/>
@@ -1712,7 +1708,7 @@
       <c r="A44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="29">
         <v>4.5999999999999996</v>
       </c>
       <c r="C44" s="4"/>
@@ -1723,7 +1719,7 @@
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="29">
         <v>9.3000000000000007</v>
       </c>
       <c r="C45" s="4"/>
@@ -1734,7 +1730,7 @@
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="29">
         <v>3.2</v>
       </c>
       <c r="C46" s="4"/>
@@ -1745,7 +1741,7 @@
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="29">
         <v>5.2</v>
       </c>
       <c r="C47" s="4"/>
@@ -1756,7 +1752,7 @@
       <c r="A48" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="29">
         <v>3</v>
       </c>
       <c r="C48" s="4"/>
@@ -1767,7 +1763,7 @@
       <c r="A49" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="29">
         <v>2.5</v>
       </c>
       <c r="C49" s="4"/>
@@ -1778,7 +1774,7 @@
       <c r="A50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="29">
         <v>3.1</v>
       </c>
       <c r="C50" s="4"/>
@@ -1789,7 +1785,7 @@
       <c r="A51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="29">
         <v>3.6</v>
       </c>
       <c r="C51" s="4"/>
@@ -1800,7 +1796,7 @@
       <c r="A52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="29">
         <v>1.9</v>
       </c>
       <c r="C52" s="4"/>
@@ -1811,7 +1807,7 @@
       <c r="A53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="29">
         <v>2.6</v>
       </c>
       <c r="C53" s="4"/>
@@ -1822,7 +1818,7 @@
       <c r="A54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="29">
         <v>6.5</v>
       </c>
       <c r="C54" s="4"/>
@@ -1833,7 +1829,7 @@
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="29">
         <v>2.7</v>
       </c>
       <c r="C55" s="4"/>
@@ -1844,7 +1840,7 @@
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="29">
         <v>9.1999999999999993</v>
       </c>
       <c r="C56" s="4"/>
@@ -1855,7 +1851,7 @@
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="29">
         <v>6.8</v>
       </c>
       <c r="C57" s="4"/>
@@ -1866,7 +1862,7 @@
       <c r="A58" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="29">
         <v>2.8</v>
       </c>
       <c r="C58" s="4"/>
@@ -1877,7 +1873,7 @@
       <c r="A59" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="29">
         <v>3.2</v>
       </c>
       <c r="C59" s="4"/>
@@ -1888,7 +1884,7 @@
       <c r="A60" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="29">
         <v>3.8</v>
       </c>
       <c r="C60" s="4"/>
@@ -1899,7 +1895,7 @@
       <c r="A61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="29">
         <v>7.9</v>
       </c>
       <c r="C61" s="4"/>
@@ -1910,7 +1906,7 @@
       <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="C62" s="4"/>
@@ -1921,7 +1917,7 @@
       <c r="A63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="29">
         <v>3.5</v>
       </c>
       <c r="C63" s="4"/>
@@ -1932,7 +1928,7 @@
       <c r="A64" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="29">
         <v>3.2</v>
       </c>
       <c r="C64" s="4"/>
@@ -1943,7 +1939,7 @@
       <c r="A65" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="29">
         <v>2</v>
       </c>
       <c r="C65" s="4"/>
@@ -1954,7 +1950,7 @@
       <c r="A66" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="29">
         <v>2.1</v>
       </c>
       <c r="C66" s="4"/>
@@ -1965,7 +1961,7 @@
       <c r="A67" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="29">
         <v>2.7</v>
       </c>
       <c r="C67" s="4"/>
@@ -1976,7 +1972,7 @@
       <c r="A68" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C68" s="4"/>
@@ -1987,7 +1983,7 @@
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="29">
         <v>2.4</v>
       </c>
       <c r="C69" s="4"/>
@@ -1998,7 +1994,7 @@
       <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="29">
         <v>8.4</v>
       </c>
       <c r="C70" s="4"/>
@@ -2009,7 +2005,7 @@
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="29">
         <v>4.7</v>
       </c>
       <c r="C71" s="4"/>
@@ -2020,7 +2016,7 @@
       <c r="A72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="29">
         <v>8.5</v>
       </c>
       <c r="C72" s="4"/>
@@ -2031,7 +2027,7 @@
       <c r="A73" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="29">
         <v>3.3</v>
       </c>
       <c r="C73" s="4"/>
@@ -2042,7 +2038,7 @@
       <c r="A74" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="29">
         <v>2.8</v>
       </c>
       <c r="C74" s="4"/>
@@ -2053,7 +2049,7 @@
       <c r="A75" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C75" s="4"/>
@@ -2064,7 +2060,7 @@
       <c r="A76" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="29">
         <v>1.5</v>
       </c>
       <c r="C76" s="4"/>
@@ -2075,7 +2071,7 @@
       <c r="A77" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="29">
         <v>8</v>
       </c>
       <c r="C77" s="4"/>
@@ -2086,7 +2082,7 @@
       <c r="A78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="29">
         <v>6.1</v>
       </c>
       <c r="C78" s="4"/>
@@ -2097,7 +2093,7 @@
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="29">
         <v>3.9</v>
       </c>
       <c r="C79" s="4"/>
@@ -2108,7 +2104,7 @@
       <c r="A80" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="29">
         <v>3.3</v>
       </c>
       <c r="C80" s="4"/>
@@ -2119,7 +2115,7 @@
       <c r="A81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="29">
         <v>7.8</v>
       </c>
       <c r="C81" s="4"/>
@@ -2130,7 +2126,7 @@
       <c r="A82" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="29">
         <v>4.7</v>
       </c>
       <c r="C82" s="4"/>
@@ -2141,7 +2137,7 @@
       <c r="A83" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="29">
         <v>2.9</v>
       </c>
       <c r="C83" s="4"/>
@@ -2152,7 +2148,7 @@
       <c r="A84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="29">
         <v>2.1</v>
       </c>
       <c r="C84" s="4"/>
@@ -2163,7 +2159,7 @@
       <c r="A85" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="29">
         <v>3.2</v>
       </c>
       <c r="C85" s="4"/>
@@ -2174,7 +2170,7 @@
       <c r="A86" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="29">
         <v>4.5</v>
       </c>
       <c r="C86" s="4"/>
@@ -2185,7 +2181,7 @@
       <c r="A87" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="29">
         <v>2</v>
       </c>
       <c r="C87" s="4"/>
@@ -2196,7 +2192,7 @@
       <c r="A88" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="29">
         <v>2.1</v>
       </c>
       <c r="C88" s="4"/>
@@ -2207,7 +2203,7 @@
       <c r="A89" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="29">
         <v>4.3</v>
       </c>
       <c r="C89" s="4"/>
@@ -2218,7 +2214,7 @@
       <c r="A90" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="29">
         <v>2.5</v>
       </c>
       <c r="C90" s="4"/>
@@ -2229,7 +2225,7 @@
       <c r="A91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="29">
         <v>3.5</v>
       </c>
       <c r="C91" s="4"/>
@@ -2240,7 +2236,7 @@
       <c r="A92" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="29">
         <v>3.3</v>
       </c>
       <c r="C92" s="4"/>
@@ -2251,7 +2247,7 @@
       <c r="A93" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C93" s="4"/>
@@ -2262,7 +2258,7 @@
       <c r="A94" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="29">
         <v>5</v>
       </c>
       <c r="C94" s="4"/>
@@ -2273,7 +2269,7 @@
       <c r="A95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="29">
         <v>8.5</v>
       </c>
       <c r="C95" s="4"/>
@@ -2284,7 +2280,7 @@
       <c r="A96" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="29">
         <v>5</v>
       </c>
       <c r="C96" s="4"/>
@@ -2295,7 +2291,7 @@
       <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="C97" s="4"/>
@@ -2306,7 +2302,7 @@
       <c r="A98" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="29">
         <v>2.6</v>
       </c>
       <c r="C98" s="4"/>
@@ -2317,7 +2313,7 @@
       <c r="A99" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="29">
         <v>3.4</v>
       </c>
       <c r="C99" s="4"/>
@@ -2328,7 +2324,7 @@
       <c r="A100" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="C100" s="4"/>
@@ -2339,7 +2335,7 @@
       <c r="A101" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="29">
         <v>2.2999999999999998</v>
       </c>
       <c r="C101" s="4"/>
@@ -2350,7 +2346,7 @@
       <c r="A102" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="29">
         <v>2.7</v>
       </c>
       <c r="C102" s="4"/>
@@ -2361,7 +2357,7 @@
       <c r="A103" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="29">
         <v>5.6</v>
       </c>
       <c r="C103" s="4"/>
@@ -2372,7 +2368,7 @@
       <c r="A104" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="29">
         <v>2.2999999999999998</v>
       </c>
       <c r="C104" s="4"/>
@@ -2383,7 +2379,7 @@
       <c r="A105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="29">
         <v>5.4</v>
       </c>
       <c r="C105" s="4"/>
@@ -2394,7 +2390,7 @@
       <c r="A106" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="29">
         <v>3.1</v>
       </c>
       <c r="C106" s="4"/>
@@ -2405,7 +2401,7 @@
       <c r="A107" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="29">
         <v>2.9</v>
       </c>
       <c r="C107" s="4"/>
@@ -2416,7 +2412,7 @@
       <c r="A108" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="29">
         <v>2.7</v>
       </c>
       <c r="C108" s="4"/>
@@ -2427,7 +2423,7 @@
       <c r="A109" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="29">
         <v>3.7</v>
       </c>
       <c r="C109" s="4"/>
@@ -2438,7 +2434,7 @@
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="29">
         <v>3.4</v>
       </c>
       <c r="C110" s="4"/>
@@ -2449,7 +2445,7 @@
       <c r="A111" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="29">
         <v>2.7</v>
       </c>
       <c r="C111" s="4"/>
@@ -2460,7 +2456,7 @@
       <c r="A112" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="29">
         <v>1.4</v>
       </c>
       <c r="C112" s="4"/>
@@ -2471,7 +2467,7 @@
       <c r="A113" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="C113" s="4"/>
@@ -2482,7 +2478,7 @@
       <c r="A114" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C114" s="4"/>
@@ -2493,7 +2489,7 @@
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="29">
         <v>8.8000000000000007</v>
       </c>
       <c r="C115" s="4"/>
@@ -2504,7 +2500,7 @@
       <c r="A116" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="29">
         <v>9.3000000000000007</v>
       </c>
       <c r="C116" s="4"/>
@@ -2515,7 +2511,7 @@
       <c r="A117" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="29">
         <v>2.5</v>
       </c>
       <c r="C117" s="4"/>
@@ -2526,7 +2522,7 @@
       <c r="A118" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="29">
         <v>2.6</v>
       </c>
       <c r="C118" s="4"/>
@@ -2537,7 +2533,7 @@
       <c r="A119" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="29">
         <v>2.4</v>
       </c>
       <c r="C119" s="4"/>
@@ -2548,7 +2544,7 @@
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="29">
         <v>8.6</v>
       </c>
       <c r="C120" s="4"/>
@@ -2559,7 +2555,7 @@
       <c r="A121" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="29">
         <v>5.3</v>
       </c>
       <c r="C121" s="4"/>
@@ -2570,7 +2566,7 @@
       <c r="A122" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="29">
         <v>2.2999999999999998</v>
       </c>
       <c r="C122" s="4"/>
@@ -2581,7 +2577,7 @@
       <c r="A123" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="29">
         <v>3.6</v>
       </c>
       <c r="C123" s="4"/>
@@ -2592,7 +2588,7 @@
       <c r="A124" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="29">
         <v>2.1</v>
       </c>
       <c r="C124" s="4"/>
@@ -2603,7 +2599,7 @@
       <c r="A125" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C125" s="4"/>
@@ -2614,7 +2610,7 @@
       <c r="A126" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="29">
         <v>3.5</v>
       </c>
       <c r="C126" s="4"/>
@@ -2625,7 +2621,7 @@
       <c r="A127" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="29">
         <v>2.4</v>
       </c>
       <c r="C127" s="4"/>
@@ -2636,7 +2632,7 @@
       <c r="A128" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="29">
         <v>5.3</v>
       </c>
       <c r="C128" s="4"/>
@@ -2647,7 +2643,7 @@
       <c r="A129" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="29">
         <v>6</v>
       </c>
       <c r="C129" s="4"/>
@@ -2658,7 +2654,7 @@
       <c r="A130" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="29">
         <v>5.8</v>
       </c>
       <c r="C130" s="4"/>
@@ -2669,7 +2665,7 @@
       <c r="A131" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="29">
         <v>7.7</v>
       </c>
       <c r="C131" s="4"/>
@@ -2680,7 +2676,7 @@
       <c r="A132" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="29">
         <v>3.7</v>
       </c>
       <c r="C132" s="4"/>
@@ -2691,7 +2687,7 @@
       <c r="A133" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="29">
         <v>2.1</v>
       </c>
       <c r="C133" s="4"/>
@@ -2702,7 +2698,7 @@
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="29">
         <v>4</v>
       </c>
       <c r="C134" s="4"/>
@@ -2713,8 +2709,8 @@
       <c r="A135" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>203</v>
+      <c r="B135" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -2724,8 +2720,8 @@
       <c r="A136" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>203</v>
+      <c r="B136" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -2735,7 +2731,7 @@
       <c r="A137" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="29">
         <v>4.0999999999999996</v>
       </c>
       <c r="C137" s="4"/>
@@ -2746,7 +2742,7 @@
       <c r="A138" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="29">
         <v>3</v>
       </c>
       <c r="C138" s="4"/>
@@ -2757,7 +2753,7 @@
       <c r="A139" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="29">
         <v>4.7</v>
       </c>
       <c r="C139" s="4"/>
@@ -2768,7 +2764,7 @@
       <c r="A140" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="29">
         <v>2.9</v>
       </c>
       <c r="C140" s="4"/>
@@ -2779,7 +2775,7 @@
       <c r="A141" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="29">
         <v>3.5</v>
       </c>
       <c r="C141" s="4"/>
@@ -2790,7 +2786,7 @@
       <c r="A142" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="29">
         <v>4.8</v>
       </c>
       <c r="C142" s="4"/>
@@ -2801,7 +2797,7 @@
       <c r="A143" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="29">
         <v>2.4</v>
       </c>
       <c r="C143" s="4"/>
@@ -2812,7 +2808,7 @@
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="29">
         <v>9.3000000000000007</v>
       </c>
       <c r="C144" s="4"/>
@@ -2823,7 +2819,7 @@
       <c r="A145" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="29">
         <v>4.3</v>
       </c>
       <c r="C145" s="4"/>
@@ -2834,7 +2830,7 @@
       <c r="A146" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="29">
         <v>6.4</v>
       </c>
       <c r="C146" s="4"/>
@@ -2845,7 +2841,7 @@
       <c r="A147" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="29">
         <v>2.8</v>
       </c>
       <c r="C147" s="4"/>
@@ -2856,7 +2852,7 @@
       <c r="A148" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="C148" s="4"/>
@@ -2867,7 +2863,7 @@
       <c r="A149" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="29">
         <v>4.5</v>
       </c>
       <c r="C149" s="4"/>
@@ -2878,7 +2874,7 @@
       <c r="A150" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="29">
         <v>6.1</v>
       </c>
       <c r="C150" s="4"/>
@@ -2889,7 +2885,7 @@
       <c r="A151" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="29">
         <v>3.2</v>
       </c>
       <c r="C151" s="4"/>
@@ -2900,7 +2896,7 @@
       <c r="A152" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="29">
         <v>1.6</v>
       </c>
       <c r="C152" s="4"/>
@@ -2911,8 +2907,8 @@
       <c r="A153" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B153" s="11" t="s">
-        <v>203</v>
+      <c r="B153" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -2922,7 +2918,7 @@
       <c r="A154" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="29">
         <v>3.2</v>
       </c>
       <c r="C154" s="4"/>
@@ -2933,7 +2929,7 @@
       <c r="A155" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="29">
         <v>9.1999999999999993</v>
       </c>
       <c r="C155" s="4"/>
@@ -2944,7 +2940,7 @@
       <c r="A156" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="29">
         <v>8.6999999999999993</v>
       </c>
       <c r="C156" s="4"/>
@@ -2955,7 +2951,7 @@
       <c r="A157" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="29">
         <v>2.5</v>
       </c>
       <c r="C157" s="4"/>
@@ -2966,7 +2962,7 @@
       <c r="A158" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="29">
         <v>5.8</v>
       </c>
       <c r="C158" s="4"/>
@@ -2977,7 +2973,7 @@
       <c r="A159" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="29">
         <v>2.1</v>
       </c>
       <c r="C159" s="4"/>
@@ -2988,7 +2984,7 @@
       <c r="A160" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="29">
         <v>2.7</v>
       </c>
       <c r="C160" s="4"/>
@@ -2999,7 +2995,7 @@
       <c r="A161" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="29">
         <v>3.5</v>
       </c>
       <c r="C161" s="4"/>
@@ -3010,7 +3006,7 @@
       <c r="A162" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="29">
         <v>2.5</v>
       </c>
       <c r="C162" s="4"/>
@@ -3021,7 +3017,7 @@
       <c r="A163" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="29">
         <v>2.4</v>
       </c>
       <c r="C163" s="4"/>
@@ -3032,7 +3028,7 @@
       <c r="A164" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="29">
         <v>3</v>
       </c>
       <c r="C164" s="4"/>
@@ -3043,7 +3039,7 @@
       <c r="A165" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="29">
         <v>3.6</v>
       </c>
       <c r="C165" s="4"/>
@@ -3054,7 +3050,7 @@
       <c r="A166" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="29">
         <v>4.3</v>
       </c>
       <c r="C166" s="4"/>
@@ -3065,7 +3061,7 @@
       <c r="A167" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="29">
         <v>4.4000000000000004</v>
       </c>
       <c r="C167" s="4"/>
@@ -3076,7 +3072,7 @@
       <c r="A168" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="29">
         <v>1.6</v>
       </c>
       <c r="C168" s="4"/>
@@ -3087,7 +3083,7 @@
       <c r="A169" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="29">
         <v>2.5</v>
       </c>
       <c r="C169" s="4"/>
@@ -3098,7 +3094,7 @@
       <c r="A170" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="29">
         <v>2.4</v>
       </c>
       <c r="C170" s="4"/>
@@ -3109,7 +3105,7 @@
       <c r="A171" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="29">
         <v>6.3</v>
       </c>
       <c r="C171" s="4"/>
@@ -3120,7 +3116,7 @@
       <c r="A172" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="29">
         <v>7.6</v>
       </c>
       <c r="C172" s="4"/>
@@ -3131,7 +3127,7 @@
       <c r="A173" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="29">
         <v>7.1</v>
       </c>
       <c r="C173" s="4"/>
@@ -3142,7 +3138,7 @@
       <c r="A174" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="29">
         <v>6.9</v>
       </c>
       <c r="C174" s="4"/>
@@ -3153,7 +3149,7 @@
       <c r="A175" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="29">
         <v>1.6</v>
       </c>
       <c r="C175" s="4"/>
@@ -3164,7 +3160,7 @@
       <c r="A176" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="29">
         <v>3.6</v>
       </c>
       <c r="C176" s="4"/>
@@ -3175,7 +3171,7 @@
       <c r="A177" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="29">
         <v>2</v>
       </c>
       <c r="C177" s="4"/>
@@ -3186,7 +3182,7 @@
       <c r="A178" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="29">
         <v>2.7</v>
       </c>
       <c r="C178" s="4"/>
@@ -3197,7 +3193,7 @@
       <c r="A179" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="29">
         <v>2.2000000000000002</v>
       </c>
       <c r="C179" s="4"/>
@@ -3208,7 +3204,7 @@
       <c r="A180" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="29">
         <v>3</v>
       </c>
       <c r="C180" s="4"/>
@@ -3219,7 +3215,7 @@
       <c r="A181" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="29">
         <v>2.4</v>
       </c>
       <c r="C181" s="4"/>
@@ -3227,7 +3223,7 @@
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="11"/>
+      <c r="B182" s="29"/>
     </row>
   </sheetData>
   <sortState ref="A2:B181">
@@ -3262,112 +3258,112 @@
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
@@ -3375,7 +3371,7 @@
     <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="29"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4"/>
@@ -3640,7 +3636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3652,10 +3648,10 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C2" s="4"/>
@@ -3664,7 +3660,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3676,10 +3672,10 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="4"/>
